--- a/doc/db/pd/库结构.xlsx
+++ b/doc/db/pd/库结构.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieli/Workspace/eclipseSpace/xinji/doc/db/pd/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="349">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1311,10 +1319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分类：辛集资讯-0，办事指南-1，劳务招聘-2，劳务维权-3，劳务政策-4，个人求职-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,6 +1332,81 @@
   </si>
   <si>
     <t>标签或分类，多个以（|）分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类：辛集资讯-0，办事指南-1，劳务招聘-2，劳务维权-3，劳务政策-4，个人求职-5，辛集热点-6，本地号码-7，本地旅游-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xj_app_info（App信息表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app类型, 1：Android 2：IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build大小，以kb为单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>build_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1641,7 +1720,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1693,186 +1772,194 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="175">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2198,13 +2285,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G375"/>
+  <dimension ref="A3:G393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="F291" sqref="F291"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
@@ -2216,17 +2303,17 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="27" customHeight="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2264,7 +2351,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>216</v>
       </c>
@@ -2282,7 +2369,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>218</v>
       </c>
@@ -2300,7 +2387,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>220</v>
       </c>
@@ -2318,7 +2405,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>221</v>
       </c>
@@ -2338,7 +2425,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2356,7 +2443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>227</v>
       </c>
@@ -2372,7 +2459,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>230</v>
       </c>
@@ -2388,7 +2475,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>320</v>
       </c>
@@ -2404,7 +2491,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>231</v>
       </c>
@@ -2420,7 +2507,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>232</v>
       </c>
@@ -2436,7 +2523,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>322</v>
       </c>
@@ -2452,7 +2539,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2460,7 +2547,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2468,17 +2555,17 @@
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -2516,7 +2603,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>101</v>
       </c>
@@ -2534,7 +2621,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>103</v>
       </c>
@@ -2550,7 +2637,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
@@ -2566,7 +2653,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>107</v>
       </c>
@@ -2582,7 +2669,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>109</v>
       </c>
@@ -2598,7 +2685,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>120</v>
       </c>
@@ -2614,7 +2701,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>112</v>
       </c>
@@ -2630,7 +2717,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>114</v>
       </c>
@@ -2646,7 +2733,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>117</v>
       </c>
@@ -2664,7 +2751,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>227</v>
       </c>
@@ -2680,7 +2767,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>230</v>
       </c>
@@ -2696,7 +2783,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>320</v>
       </c>
@@ -2712,7 +2799,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>231</v>
       </c>
@@ -2728,7 +2815,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>232</v>
       </c>
@@ -2744,7 +2831,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>322</v>
       </c>
@@ -2760,7 +2847,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2768,7 +2855,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2776,17 +2863,17 @@
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
@@ -2824,7 +2911,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2840,7 +2927,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>248</v>
       </c>
@@ -2856,7 +2943,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>26</v>
       </c>
@@ -2872,7 +2959,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
@@ -2892,7 +2979,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>63</v>
       </c>
@@ -2908,7 +2995,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>316</v>
       </c>
@@ -2924,7 +3011,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>227</v>
       </c>
@@ -2940,7 +3027,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>230</v>
       </c>
@@ -2956,7 +3043,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>320</v>
       </c>
@@ -2972,7 +3059,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>231</v>
       </c>
@@ -2988,7 +3075,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>232</v>
       </c>
@@ -3004,7 +3091,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>322</v>
       </c>
@@ -3020,17 +3107,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="18" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +3137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
@@ -3068,7 +3155,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>31</v>
       </c>
@@ -3084,7 +3171,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>33</v>
       </c>
@@ -3102,7 +3189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>36</v>
       </c>
@@ -3118,7 +3205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>35</v>
       </c>
@@ -3134,7 +3221,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>40</v>
       </c>
@@ -3150,7 +3237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>15</v>
       </c>
@@ -3170,7 +3257,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -3186,7 +3273,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>227</v>
       </c>
@@ -3202,7 +3289,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>230</v>
       </c>
@@ -3218,7 +3305,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>320</v>
       </c>
@@ -3234,7 +3321,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>231</v>
       </c>
@@ -3250,7 +3337,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>232</v>
       </c>
@@ -3266,7 +3353,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>322</v>
       </c>
@@ -3282,17 +3369,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="18" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>5</v>
       </c>
@@ -3330,7 +3417,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>46</v>
       </c>
@@ -3346,7 +3433,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>65</v>
       </c>
@@ -3362,7 +3449,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>62</v>
       </c>
@@ -3377,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>48</v>
       </c>
@@ -3399,7 +3486,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>51</v>
       </c>
@@ -3415,7 +3502,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>54</v>
       </c>
@@ -3431,7 +3518,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>59</v>
       </c>
@@ -3447,7 +3534,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>15</v>
       </c>
@@ -3467,7 +3554,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>227</v>
       </c>
@@ -3483,7 +3570,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>230</v>
       </c>
@@ -3499,7 +3586,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>320</v>
       </c>
@@ -3515,7 +3602,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>231</v>
       </c>
@@ -3531,7 +3618,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>232</v>
       </c>
@@ -3547,7 +3634,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>322</v>
       </c>
@@ -3563,17 +3650,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="18" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -3593,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>5</v>
       </c>
@@ -3611,7 +3698,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>46</v>
       </c>
@@ -3627,7 +3714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>48</v>
       </c>
@@ -3643,7 +3730,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>71</v>
       </c>
@@ -3659,7 +3746,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>40</v>
       </c>
@@ -3675,7 +3762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>15</v>
       </c>
@@ -3695,7 +3782,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>227</v>
       </c>
@@ -3711,7 +3798,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>230</v>
       </c>
@@ -3727,7 +3814,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>320</v>
       </c>
@@ -3743,7 +3830,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>231</v>
       </c>
@@ -3759,7 +3846,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>232</v>
       </c>
@@ -3775,7 +3862,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>322</v>
       </c>
@@ -3791,17 +3878,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="18" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>0</v>
       </c>
@@ -3821,7 +3908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>5</v>
       </c>
@@ -3839,7 +3926,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>46</v>
       </c>
@@ -3855,7 +3942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>48</v>
       </c>
@@ -3871,7 +3958,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>71</v>
       </c>
@@ -3887,7 +3974,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>40</v>
       </c>
@@ -3903,7 +3990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>15</v>
       </c>
@@ -3923,7 +4010,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>227</v>
       </c>
@@ -3939,7 +4026,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>230</v>
       </c>
@@ -3955,7 +4042,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>320</v>
       </c>
@@ -3971,7 +4058,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>231</v>
       </c>
@@ -3987,7 +4074,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>232</v>
       </c>
@@ -4003,7 +4090,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>322</v>
       </c>
@@ -4019,17 +4106,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="18" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>0</v>
       </c>
@@ -4049,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>5</v>
       </c>
@@ -4067,7 +4154,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>31</v>
       </c>
@@ -4083,7 +4170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>48</v>
       </c>
@@ -4099,7 +4186,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>77</v>
       </c>
@@ -4115,7 +4202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>40</v>
       </c>
@@ -4131,7 +4218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>15</v>
       </c>
@@ -4151,7 +4238,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>227</v>
       </c>
@@ -4167,7 +4254,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>230</v>
       </c>
@@ -4183,7 +4270,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>320</v>
       </c>
@@ -4199,7 +4286,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>231</v>
       </c>
@@ -4215,7 +4302,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>232</v>
       </c>
@@ -4231,7 +4318,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>322</v>
       </c>
@@ -4247,20 +4334,20 @@
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="18" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
       <c r="G141" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>0</v>
       </c>
@@ -4283,7 +4370,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>5</v>
       </c>
@@ -4301,7 +4388,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>31</v>
       </c>
@@ -4317,7 +4404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>83</v>
       </c>
@@ -4333,7 +4420,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>40</v>
       </c>
@@ -4349,7 +4436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>15</v>
       </c>
@@ -4369,7 +4456,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>227</v>
       </c>
@@ -4385,7 +4472,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>230</v>
       </c>
@@ -4401,7 +4488,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>320</v>
       </c>
@@ -4417,7 +4504,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>231</v>
       </c>
@@ -4433,7 +4520,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>232</v>
       </c>
@@ -4449,7 +4536,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>322</v>
       </c>
@@ -4465,7 +4552,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4475,17 +4562,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="18" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>5</v>
       </c>
@@ -4523,7 +4610,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>86</v>
       </c>
@@ -4541,7 +4628,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>88</v>
       </c>
@@ -4559,7 +4646,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>46</v>
       </c>
@@ -4575,7 +4662,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>65</v>
       </c>
@@ -4591,7 +4678,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>48</v>
       </c>
@@ -4607,7 +4694,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>51</v>
       </c>
@@ -4623,7 +4710,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>54</v>
       </c>
@@ -4639,7 +4726,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>59</v>
       </c>
@@ -4655,7 +4742,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>15</v>
       </c>
@@ -4675,7 +4762,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>227</v>
       </c>
@@ -4691,7 +4778,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>230</v>
       </c>
@@ -4707,7 +4794,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>320</v>
       </c>
@@ -4723,7 +4810,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>231</v>
       </c>
@@ -4739,7 +4826,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>232</v>
       </c>
@@ -4755,7 +4842,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>322</v>
       </c>
@@ -4771,17 +4858,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="18" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +4888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>5</v>
       </c>
@@ -4819,7 +4906,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>31</v>
       </c>
@@ -4835,7 +4922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>48</v>
       </c>
@@ -4851,7 +4938,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>77</v>
       </c>
@@ -4867,7 +4954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>40</v>
       </c>
@@ -4883,7 +4970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>15</v>
       </c>
@@ -4903,7 +4990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>227</v>
       </c>
@@ -4919,7 +5006,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>230</v>
       </c>
@@ -4935,7 +5022,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>320</v>
       </c>
@@ -4951,7 +5038,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>231</v>
       </c>
@@ -4967,7 +5054,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
         <v>232</v>
       </c>
@@ -4983,7 +5070,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>322</v>
       </c>
@@ -4999,20 +5086,20 @@
         <v>323</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="18" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
       <c r="G193" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>0</v>
       </c>
@@ -5035,7 +5122,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>5</v>
       </c>
@@ -5053,7 +5140,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>31</v>
       </c>
@@ -5069,7 +5156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>83</v>
       </c>
@@ -5085,7 +5172,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>40</v>
       </c>
@@ -5101,7 +5188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>15</v>
       </c>
@@ -5121,7 +5208,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>227</v>
       </c>
@@ -5137,7 +5224,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>230</v>
       </c>
@@ -5153,7 +5240,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>320</v>
       </c>
@@ -5169,7 +5256,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>231</v>
       </c>
@@ -5185,7 +5272,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>232</v>
       </c>
@@ -5201,7 +5288,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>322</v>
       </c>
@@ -5217,7 +5304,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -5227,17 +5314,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="18" t="s">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>0</v>
       </c>
@@ -5257,7 +5344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>5</v>
       </c>
@@ -5275,7 +5362,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>94</v>
       </c>
@@ -5293,7 +5380,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>88</v>
       </c>
@@ -5311,7 +5398,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>46</v>
       </c>
@@ -5327,7 +5414,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>65</v>
       </c>
@@ -5343,7 +5430,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>48</v>
       </c>
@@ -5359,7 +5446,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>51</v>
       </c>
@@ -5375,7 +5462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>54</v>
       </c>
@@ -5391,7 +5478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>59</v>
       </c>
@@ -5407,7 +5494,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>15</v>
       </c>
@@ -5427,7 +5514,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>227</v>
       </c>
@@ -5443,7 +5530,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>230</v>
       </c>
@@ -5459,7 +5546,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>320</v>
       </c>
@@ -5475,7 +5562,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>231</v>
       </c>
@@ -5491,7 +5578,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>232</v>
       </c>
@@ -5507,7 +5594,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>322</v>
       </c>
@@ -5523,17 +5610,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="18" t="s">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B229" s="18"/>
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18"/>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="B229" s="19"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="19"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>0</v>
       </c>
@@ -5553,7 +5640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>5</v>
       </c>
@@ -5571,7 +5658,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>31</v>
       </c>
@@ -5587,7 +5674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>48</v>
       </c>
@@ -5603,7 +5690,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>71</v>
       </c>
@@ -5619,7 +5706,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>40</v>
       </c>
@@ -5635,7 +5722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>15</v>
       </c>
@@ -5655,7 +5742,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>227</v>
       </c>
@@ -5671,7 +5758,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>230</v>
       </c>
@@ -5687,7 +5774,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>320</v>
       </c>
@@ -5703,7 +5790,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
         <v>231</v>
       </c>
@@ -5719,7 +5806,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
         <v>232</v>
       </c>
@@ -5735,7 +5822,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>322</v>
       </c>
@@ -5751,17 +5838,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="18" t="s">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
-      <c r="D245" s="18"/>
-      <c r="E245" s="18"/>
-      <c r="F245" s="18"/>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="19"/>
+      <c r="E245" s="19"/>
+      <c r="F245" s="19"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -5781,7 +5868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>5</v>
       </c>
@@ -5799,7 +5886,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>31</v>
       </c>
@@ -5815,7 +5902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>48</v>
       </c>
@@ -5831,7 +5918,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>71</v>
       </c>
@@ -5847,7 +5934,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>40</v>
       </c>
@@ -5863,7 +5950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>15</v>
       </c>
@@ -5883,7 +5970,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>227</v>
       </c>
@@ -5899,7 +5986,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>230</v>
       </c>
@@ -5915,7 +6002,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>320</v>
       </c>
@@ -5931,7 +6018,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
         <v>231</v>
       </c>
@@ -5947,7 +6034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
         <v>232</v>
       </c>
@@ -5963,7 +6050,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
         <v>322</v>
       </c>
@@ -5979,17 +6066,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="18" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B261" s="18"/>
-      <c r="C261" s="18"/>
-      <c r="D261" s="18"/>
-      <c r="E261" s="18"/>
-      <c r="F261" s="18"/>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="B261" s="19"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="19"/>
+      <c r="E261" s="19"/>
+      <c r="F261" s="19"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
@@ -6009,7 +6096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>5</v>
       </c>
@@ -6027,7 +6114,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>197</v>
       </c>
@@ -6043,7 +6130,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>31</v>
       </c>
@@ -6059,7 +6146,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>48</v>
       </c>
@@ -6075,7 +6162,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>127</v>
       </c>
@@ -6091,7 +6178,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>129</v>
       </c>
@@ -6107,7 +6194,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>132</v>
       </c>
@@ -6123,7 +6210,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>138</v>
       </c>
@@ -6139,7 +6226,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>136</v>
       </c>
@@ -6155,7 +6242,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>15</v>
       </c>
@@ -6175,7 +6262,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>227</v>
       </c>
@@ -6191,7 +6278,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>230</v>
       </c>
@@ -6207,7 +6294,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>320</v>
       </c>
@@ -6223,7 +6310,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
         <v>231</v>
       </c>
@@ -6239,7 +6326,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
         <v>232</v>
       </c>
@@ -6255,7 +6342,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
         <v>322</v>
       </c>
@@ -6271,17 +6358,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="18" t="s">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B281" s="18"/>
-      <c r="C281" s="18"/>
-      <c r="D281" s="18"/>
-      <c r="E281" s="18"/>
-      <c r="F281" s="18"/>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="B281" s="19"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="19"/>
+      <c r="E281" s="19"/>
+      <c r="F281" s="19"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>0</v>
       </c>
@@ -6301,7 +6388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>5</v>
       </c>
@@ -6319,7 +6406,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>22</v>
       </c>
@@ -6335,7 +6422,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>65</v>
       </c>
@@ -6351,7 +6438,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>48</v>
       </c>
@@ -6367,7 +6454,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>202</v>
       </c>
@@ -6380,10 +6467,10 @@
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>129</v>
       </c>
@@ -6399,7 +6486,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>132</v>
       </c>
@@ -6415,7 +6502,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>138</v>
       </c>
@@ -6431,12 +6518,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B291" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>58</v>
@@ -6444,10 +6531,10 @@
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>204</v>
       </c>
@@ -6463,7 +6550,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>196</v>
       </c>
@@ -6479,7 +6566,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>144</v>
       </c>
@@ -6495,7 +6582,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>145</v>
       </c>
@@ -6511,7 +6598,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>149</v>
       </c>
@@ -6529,7 +6616,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>152</v>
       </c>
@@ -6547,7 +6634,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>15</v>
       </c>
@@ -6567,7 +6654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>227</v>
       </c>
@@ -6583,7 +6670,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>230</v>
       </c>
@@ -6599,7 +6686,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>320</v>
       </c>
@@ -6615,7 +6702,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="15" t="s">
         <v>231</v>
       </c>
@@ -6631,7 +6718,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="15" t="s">
         <v>232</v>
       </c>
@@ -6647,7 +6734,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
         <v>322</v>
       </c>
@@ -6663,17 +6750,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
-      <c r="A307" s="18" t="s">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B307" s="18"/>
-      <c r="C307" s="18"/>
-      <c r="D307" s="18"/>
-      <c r="E307" s="18"/>
-      <c r="F307" s="18"/>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="B307" s="19"/>
+      <c r="C307" s="19"/>
+      <c r="D307" s="19"/>
+      <c r="E307" s="19"/>
+      <c r="F307" s="19"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +6780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>5</v>
       </c>
@@ -6711,7 +6798,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>199</v>
       </c>
@@ -6727,7 +6814,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>200</v>
       </c>
@@ -6743,7 +6830,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="12" t="s">
         <v>207</v>
       </c>
@@ -6761,7 +6848,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>227</v>
       </c>
@@ -6777,7 +6864,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>230</v>
       </c>
@@ -6793,7 +6880,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>320</v>
       </c>
@@ -6809,7 +6896,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="15" t="s">
         <v>231</v>
       </c>
@@ -6825,7 +6912,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="15" t="s">
         <v>232</v>
       </c>
@@ -6841,7 +6928,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="15" t="s">
         <v>322</v>
       </c>
@@ -6857,17 +6944,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
-      <c r="A321" s="18" t="s">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B321" s="18"/>
-      <c r="C321" s="18"/>
-      <c r="D321" s="18"/>
-      <c r="E321" s="18"/>
-      <c r="F321" s="18"/>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="B321" s="19"/>
+      <c r="C321" s="19"/>
+      <c r="D321" s="19"/>
+      <c r="E321" s="19"/>
+      <c r="F321" s="19"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>0</v>
       </c>
@@ -6887,7 +6974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>5</v>
       </c>
@@ -6905,7 +6992,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>155</v>
       </c>
@@ -6923,7 +7010,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>158</v>
       </c>
@@ -6939,7 +7026,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>161</v>
       </c>
@@ -6955,7 +7042,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>170</v>
       </c>
@@ -6971,7 +7058,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>166</v>
       </c>
@@ -6987,7 +7074,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>167</v>
       </c>
@@ -7003,7 +7090,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>15</v>
       </c>
@@ -7023,7 +7110,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>180</v>
       </c>
@@ -7041,7 +7128,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>184</v>
       </c>
@@ -7057,7 +7144,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>182</v>
       </c>
@@ -7073,7 +7160,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>227</v>
       </c>
@@ -7089,7 +7176,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>230</v>
       </c>
@@ -7105,7 +7192,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>320</v>
       </c>
@@ -7121,7 +7208,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="15" t="s">
         <v>231</v>
       </c>
@@ -7137,7 +7224,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="15" t="s">
         <v>232</v>
       </c>
@@ -7153,7 +7240,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="15" t="s">
         <v>322</v>
       </c>
@@ -7169,17 +7256,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="18" t="s">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B342" s="18"/>
-      <c r="C342" s="18"/>
-      <c r="D342" s="18"/>
-      <c r="E342" s="18"/>
-      <c r="F342" s="18"/>
-    </row>
-    <row r="343" spans="1:6">
+      <c r="B342" s="19"/>
+      <c r="C342" s="19"/>
+      <c r="D342" s="19"/>
+      <c r="E342" s="19"/>
+      <c r="F342" s="19"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>0</v>
       </c>
@@ -7199,7 +7286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>5</v>
       </c>
@@ -7217,7 +7304,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>212</v>
       </c>
@@ -7233,7 +7320,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>173</v>
       </c>
@@ -7251,7 +7338,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>211</v>
       </c>
@@ -7267,7 +7354,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>132</v>
       </c>
@@ -7283,7 +7370,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>179</v>
       </c>
@@ -7299,7 +7386,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>163</v>
       </c>
@@ -7315,7 +7402,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>191</v>
       </c>
@@ -7331,7 +7418,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>227</v>
       </c>
@@ -7347,7 +7434,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>230</v>
       </c>
@@ -7363,7 +7450,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>320</v>
       </c>
@@ -7379,7 +7466,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="15" t="s">
         <v>231</v>
       </c>
@@ -7395,7 +7482,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="15" t="s">
         <v>232</v>
       </c>
@@ -7411,7 +7498,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="15" t="s">
         <v>322</v>
       </c>
@@ -7427,17 +7514,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="18" t="s">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B360" s="18"/>
-      <c r="C360" s="18"/>
-      <c r="D360" s="18"/>
-      <c r="E360" s="18"/>
-      <c r="F360" s="18"/>
-    </row>
-    <row r="361" spans="1:6">
+      <c r="B360" s="19"/>
+      <c r="C360" s="19"/>
+      <c r="D360" s="19"/>
+      <c r="E360" s="19"/>
+      <c r="F360" s="19"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>0</v>
       </c>
@@ -7457,7 +7544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>5</v>
       </c>
@@ -7475,7 +7562,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>212</v>
       </c>
@@ -7493,7 +7580,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>175</v>
       </c>
@@ -7509,7 +7596,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>132</v>
       </c>
@@ -7525,7 +7612,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>179</v>
       </c>
@@ -7541,7 +7628,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>163</v>
       </c>
@@ -7557,7 +7644,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>187</v>
       </c>
@@ -7575,7 +7662,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
         <v>227</v>
       </c>
@@ -7591,7 +7678,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>230</v>
       </c>
@@ -7607,7 +7694,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>320</v>
       </c>
@@ -7623,7 +7710,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="15" t="s">
         <v>231</v>
       </c>
@@ -7639,7 +7726,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="15" t="s">
         <v>232</v>
       </c>
@@ -7655,7 +7742,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="15" t="s">
         <v>322</v>
       </c>
@@ -7671,7 +7758,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -7684,8 +7771,265 @@
         <v>190</v>
       </c>
     </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B378" s="19"/>
+      <c r="C378" s="19"/>
+      <c r="D378" s="19"/>
+      <c r="E378" s="19"/>
+      <c r="F378" s="19"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B379" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C379" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D379" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E379" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F379" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380" s="3"/>
+      <c r="F380" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E381" s="3"/>
+      <c r="F381" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C382" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D382" s="3"/>
+      <c r="E382" s="3"/>
+      <c r="F382" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D383" s="3"/>
+      <c r="E383" s="3"/>
+      <c r="F383" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D384" s="3"/>
+      <c r="E384" s="3"/>
+      <c r="F384" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+      <c r="F385" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+      <c r="F386" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+      <c r="F387" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388" s="3"/>
+      <c r="E388" s="3"/>
+      <c r="F388" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+      <c r="F389" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B390" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D390" s="3"/>
+      <c r="E390" s="3"/>
+      <c r="F390" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B391" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+      <c r="F391" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B392" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D392" s="3"/>
+      <c r="E392" s="3"/>
+      <c r="F392" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="3"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="3"/>
+      <c r="E393" s="3"/>
+      <c r="F393" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A378:F378"/>
     <mergeCell ref="A193:F193"/>
     <mergeCell ref="A209:F209"/>
     <mergeCell ref="A109:F109"/>
@@ -7694,14 +8038,8 @@
     <mergeCell ref="A321:F321"/>
     <mergeCell ref="A342:F342"/>
     <mergeCell ref="A360:F360"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A93:F93"/>
     <mergeCell ref="A229:F229"/>
     <mergeCell ref="A245:F245"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A261:F261"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="A141:F141"/>
@@ -7711,10 +8049,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/db/pd/库结构.xlsx
+++ b/doc/db/pd/库结构.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="359">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1408,6 +1408,45 @@
   <si>
     <t>build_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别，男：0，女：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目id，多个以|分隔</t>
   </si>
 </sst>
 </file>
@@ -2285,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G393"/>
+  <dimension ref="A3:G397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2445,220 +2484,226 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>233</v>
+        <v>350</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>325</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>234</v>
+        <v>351</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>234</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>235</v>
+      <c r="A14" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="15" t="s">
-        <v>235</v>
+      <c r="F14" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>236</v>
+      <c r="A15" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="15" t="s">
-        <v>236</v>
+      <c r="F15" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>323</v>
+        <v>231</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="9" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
@@ -2666,3864 +2711,3864 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
       <c r="F32" s="4" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>235</v>
+      <c r="A34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="15" t="s">
-        <v>235</v>
+      <c r="F34" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>236</v>
+      <c r="A35" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="15" t="s">
-        <v>236</v>
+      <c r="F35" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>323</v>
+        <v>231</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="9" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="16" t="s">
-        <v>319</v>
+        <v>15</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4" t="s">
-        <v>234</v>
+        <v>316</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>235</v>
+      <c r="A51" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="15" t="s">
-        <v>235</v>
+      <c r="F51" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>236</v>
+      <c r="A52" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="15" t="s">
-        <v>236</v>
+      <c r="F52" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>323</v>
+        <v>231</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
       <c r="F62" s="4" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
       <c r="F66" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>230</v>
+        <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>236</v>
+      <c r="F69" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>323</v>
+        <v>231</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="C73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>324</v>
+        <v>47</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D79" s="3"/>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
       <c r="F81" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>236</v>
+      <c r="F88" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>323</v>
+        <v>231</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D97" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E97" s="3"/>
       <c r="F97" s="4" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="4" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="4" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
       <c r="F100" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="4" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
       <c r="F102" s="4" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>235</v>
+      <c r="A104" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="15" t="s">
-        <v>235</v>
+      <c r="F104" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>236</v>
+      <c r="A105" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="15" t="s">
-        <v>236</v>
+      <c r="F105" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>323</v>
+        <v>231</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+      <c r="C108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D113" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E113" s="3"/>
       <c r="F113" s="4" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="4" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="4" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="3">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
       <c r="F116" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="4" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
       <c r="F118" s="4" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="4" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>235</v>
+      <c r="A120" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="15" t="s">
-        <v>235</v>
+      <c r="F120" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>236</v>
+      <c r="A121" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="15" t="s">
-        <v>236</v>
+      <c r="F121" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>323</v>
+        <v>231</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="9" t="s">
+      <c r="F122" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
+      <c r="C124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D129" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E129" s="3"/>
       <c r="F129" s="4" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="4" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="3">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
       <c r="F132" s="4" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="4" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
       <c r="F134" s="4" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>9</v>
+        <v>356</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="4" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>235</v>
+      <c r="A136" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="15" t="s">
-        <v>235</v>
+      <c r="F136" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>236</v>
+      <c r="A137" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="15" t="s">
-        <v>236</v>
+      <c r="F137" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>323</v>
+      <c r="A138" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="9" t="s">
+      <c r="F138" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
+      <c r="C141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="1" t="s">
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B146" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" s="3">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
       <c r="F147" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1</v>
+      </c>
       <c r="F150" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>235</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>236</v>
+      <c r="F151" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-      <c r="F152" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>323</v>
+      <c r="F152" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="F153" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="19" t="s">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D162" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E162" s="3"/>
       <c r="F162" s="4" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D163" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E163" s="3"/>
       <c r="F163" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D164" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E164" s="3"/>
       <c r="F164" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="4" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E168" s="3">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
       <c r="F168" s="4" t="s">
-        <v>251</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="4" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="4" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
       <c r="F171" s="4" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>235</v>
+      <c r="A172" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-      <c r="F172" s="15" t="s">
-        <v>235</v>
+      <c r="F172" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B173" s="15" t="s">
-        <v>236</v>
+      <c r="A173" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-      <c r="F173" s="15" t="s">
-        <v>236</v>
+      <c r="F173" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>323</v>
+      <c r="A174" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
-      <c r="F174" s="9" t="s">
+      <c r="F174" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="19" t="s">
+      <c r="C177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F181" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="3"/>
-      <c r="F179" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D182" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E182" s="3"/>
       <c r="F182" s="4" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184" s="3">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
       <c r="F184" s="4" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="4" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="4" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="3">
+        <v>1</v>
+      </c>
       <c r="F187" s="4" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B188" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>228</v>
+      <c r="A188" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-      <c r="F188" s="15" t="s">
-        <v>235</v>
+      <c r="F188" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>236</v>
+      <c r="A189" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
-      <c r="F189" s="15" t="s">
-        <v>236</v>
+      <c r="F189" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>323</v>
+      <c r="A190" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-      <c r="F190" s="9" t="s">
+      <c r="F190" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="19" t="s">
+      <c r="C194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="1" t="s">
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E198" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F194" s="2" t="s">
+      <c r="F198" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195" s="3"/>
-      <c r="F195" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>324</v>
+        <v>6</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E199" s="3">
-        <v>1</v>
-      </c>
+      <c r="E199" s="3"/>
       <c r="F199" s="4" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="4" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="4" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="4" t="s">
-        <v>321</v>
+        <v>43</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B203" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="15" t="s">
-        <v>235</v>
+      <c r="A203" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="3">
+        <v>1</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>236</v>
+      <c r="A204" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
-      <c r="F204" s="15" t="s">
-        <v>236</v>
+      <c r="F204" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>323</v>
+      <c r="A205" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
-      <c r="F205" s="9" t="s">
-        <v>323</v>
+      <c r="F205" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
+      <c r="A206" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="19" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D214" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E214" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="F214" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E211" s="3"/>
-      <c r="F211" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="3"/>
-      <c r="F212" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" s="3"/>
-      <c r="F213" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D215" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E215" s="3"/>
       <c r="F215" s="4" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D216" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E216" s="3"/>
       <c r="F216" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D217" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E217" s="3"/>
       <c r="F217" s="4" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220" s="3">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
       <c r="F220" s="4" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="4" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="4" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>320</v>
+        <v>59</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>321</v>
+        <v>60</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="4" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B224" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="15" t="s">
-        <v>235</v>
+      <c r="A224" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="3">
+        <v>1</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B225" s="15" t="s">
-        <v>236</v>
+      <c r="A225" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
-      <c r="F225" s="15" t="s">
-        <v>236</v>
+      <c r="F225" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>323</v>
+      <c r="A226" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
-      <c r="F226" s="9" t="s">
+      <c r="F226" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="19" t="s">
+      <c r="C230" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="19"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
+      <c r="F233" s="19"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C234" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D234" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E234" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F230" s="2" t="s">
+      <c r="F234" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="3"/>
-      <c r="F231" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D235" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E235" s="3"/>
       <c r="F235" s="4" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="3">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
       <c r="F236" s="4" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="4" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="4" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="4" t="s">
-        <v>321</v>
+        <v>43</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B240" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="15" t="s">
-        <v>235</v>
+      <c r="A240" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="3">
+        <v>1</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B241" s="15" t="s">
-        <v>236</v>
+      <c r="A241" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
-      <c r="F241" s="15" t="s">
-        <v>236</v>
+      <c r="F241" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>323</v>
+      <c r="A242" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
-      <c r="F242" s="9" t="s">
+      <c r="F242" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B244" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B246" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="19" t="s">
+      <c r="C246" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
-      <c r="D245" s="19"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="19"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D250" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E250" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F246" s="2" t="s">
+      <c r="F250" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E247" s="3"/>
-      <c r="F247" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D251" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E251" s="3"/>
       <c r="F251" s="4" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E252" s="3">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
       <c r="F252" s="4" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="4" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="4" t="s">
-        <v>321</v>
+        <v>43</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B256" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="15" t="s">
-        <v>235</v>
+      <c r="A256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="3">
+        <v>1</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B257" s="15" t="s">
-        <v>236</v>
+      <c r="A257" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
-      <c r="F257" s="15" t="s">
-        <v>236</v>
+      <c r="F257" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>323</v>
+      <c r="A258" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
-      <c r="F258" s="9" t="s">
+      <c r="F258" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B260" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B261" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B262" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="19" t="s">
+      <c r="C262" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="19"/>
-      <c r="E261" s="19"/>
-      <c r="F261" s="19"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
+      <c r="B265" s="19"/>
+      <c r="C265" s="19"/>
+      <c r="D265" s="19"/>
+      <c r="E265" s="19"/>
+      <c r="F265" s="19"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B266" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D266" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E266" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F262" s="2" t="s">
+      <c r="F266" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" s="3"/>
-      <c r="F263" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D267" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E267" s="3"/>
       <c r="F267" s="4" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="4" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>139</v>
+        <v>48</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="4" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E272" s="3">
-        <v>1</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
       <c r="F272" s="4" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="4" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>234</v>
+        <v>138</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="4" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>321</v>
+        <v>136</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="4" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B276" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="15" t="s">
-        <v>235</v>
+      <c r="A276" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="3">
+        <v>1</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B277" s="15" t="s">
-        <v>236</v>
+      <c r="A277" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
-      <c r="F277" s="15" t="s">
-        <v>236</v>
+      <c r="F277" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B278" s="9" t="s">
-        <v>323</v>
+      <c r="A278" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
-      <c r="F278" s="9" t="s">
+      <c r="F278" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+      <c r="F280" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+      <c r="F281" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B282" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="19" t="s">
+      <c r="C282" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B281" s="19"/>
-      <c r="C281" s="19"/>
-      <c r="D281" s="19"/>
-      <c r="E281" s="19"/>
-      <c r="F281" s="19"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
+      <c r="B285" s="19"/>
+      <c r="C285" s="19"/>
+      <c r="D285" s="19"/>
+      <c r="E285" s="19"/>
+      <c r="F285" s="19"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B286" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C286" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D286" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E282" s="2" t="s">
+      <c r="E286" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F282" s="2" t="s">
+      <c r="F286" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E283" s="3"/>
-      <c r="F283" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D287" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E287" s="3"/>
       <c r="F287" s="4" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>58</v>
@@ -6531,609 +6576,603 @@
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>205</v>
+        <v>129</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>145</v>
+        <v>326</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="4" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>150</v>
+        <v>204</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D296" s="3"/>
-      <c r="E296" s="3">
-        <v>0</v>
-      </c>
+      <c r="E296" s="3"/>
       <c r="F296" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>153</v>
+        <v>196</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D297" s="3"/>
-      <c r="E297" s="3">
-        <v>0</v>
-      </c>
+      <c r="E297" s="3"/>
       <c r="F297" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C298" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E298" s="3">
-        <v>1</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
       <c r="F298" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="4" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
+      <c r="E300" s="3">
+        <v>0</v>
+      </c>
       <c r="F300" s="4" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>321</v>
+        <v>152</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
+      <c r="E301" s="3">
+        <v>0</v>
+      </c>
       <c r="F301" s="4" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B302" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
-      <c r="F302" s="15" t="s">
-        <v>235</v>
+      <c r="A302" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="3">
+        <v>1</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B303" s="15" t="s">
-        <v>236</v>
+      <c r="A303" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
-      <c r="F303" s="15" t="s">
-        <v>236</v>
+      <c r="F303" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>323</v>
+      <c r="A304" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
-      <c r="F304" s="9" t="s">
+      <c r="F304" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+      <c r="F305" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B306" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B308" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="19" t="s">
+      <c r="C308" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B307" s="19"/>
-      <c r="C307" s="19"/>
-      <c r="D307" s="19"/>
-      <c r="E307" s="19"/>
-      <c r="F307" s="19"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="7" t="s">
+      <c r="B311" s="19"/>
+      <c r="C311" s="19"/>
+      <c r="D311" s="19"/>
+      <c r="E311" s="19"/>
+      <c r="F311" s="19"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B312" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C312" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D308" s="7" t="s">
+      <c r="D312" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E308" s="7" t="s">
+      <c r="E312" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F308" s="7" t="s">
+      <c r="F312" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E309" s="3"/>
-      <c r="F309" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B310" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B311" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D311" s="11"/>
-      <c r="E311" s="11"/>
-      <c r="F311" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B312" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C312" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D312" s="14"/>
-      <c r="E312" s="14">
-        <v>1</v>
-      </c>
-      <c r="F312" s="13" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D313" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E313" s="3"/>
       <c r="F313" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D314" s="8"/>
+      <c r="E314" s="8"/>
+      <c r="F314" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
+      <c r="F315" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14">
+        <v>1</v>
+      </c>
+      <c r="F316" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B317" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
-      <c r="F315" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B316" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B317" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="C317" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
-      <c r="F317" s="15" t="s">
-        <v>236</v>
+      <c r="F317" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B318" s="9" t="s">
-        <v>323</v>
+      <c r="A318" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
-      <c r="F318" s="9" t="s">
+      <c r="F318" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="19" t="s">
+      <c r="C322" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+      <c r="F322" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B321" s="19"/>
-      <c r="C321" s="19"/>
-      <c r="D321" s="19"/>
-      <c r="E321" s="19"/>
-      <c r="F321" s="19"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
+      <c r="B325" s="19"/>
+      <c r="C325" s="19"/>
+      <c r="D325" s="19"/>
+      <c r="E325" s="19"/>
+      <c r="F325" s="19"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B326" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C326" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D322" s="2" t="s">
+      <c r="D326" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E322" s="2" t="s">
+      <c r="E326" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F322" s="2" t="s">
+      <c r="F326" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E323" s="3"/>
-      <c r="F323" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E324" s="3"/>
-      <c r="F324" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C325" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
-      <c r="F325" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D327" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E327" s="3"/>
       <c r="F327" s="4" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D328" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="E328" s="3"/>
       <c r="F328" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="4" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E330" s="3">
-        <v>1</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
       <c r="F330" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>324</v>
+        <v>171</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D331" s="3"/>
-      <c r="E331" s="3">
-        <v>1</v>
-      </c>
+      <c r="E331" s="3"/>
       <c r="F331" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>151</v>
@@ -7141,273 +7180,279 @@
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D334" s="3"/>
-      <c r="E334" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" s="3">
+        <v>1</v>
+      </c>
       <c r="F334" s="4" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C335" s="4" t="s">
-        <v>9</v>
+        <v>181</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="D335" s="3"/>
-      <c r="E335" s="3"/>
+      <c r="E335" s="3">
+        <v>1</v>
+      </c>
       <c r="F335" s="4" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="4" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B337" s="15" t="s">
-        <v>235</v>
+      <c r="A337" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
-      <c r="F337" s="15" t="s">
-        <v>235</v>
+      <c r="F337" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B338" s="15" t="s">
-        <v>236</v>
+      <c r="A338" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
-      <c r="F338" s="15" t="s">
-        <v>236</v>
+      <c r="F338" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B339" s="9" t="s">
-        <v>323</v>
+      <c r="A339" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
-      <c r="F339" s="9" t="s">
+      <c r="F339" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
+      <c r="F341" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B343" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="19" t="s">
+      <c r="C343" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B342" s="19"/>
-      <c r="C342" s="19"/>
-      <c r="D342" s="19"/>
-      <c r="E342" s="19"/>
-      <c r="F342" s="19"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
+      <c r="B346" s="19"/>
+      <c r="C346" s="19"/>
+      <c r="D346" s="19"/>
+      <c r="E346" s="19"/>
+      <c r="F346" s="19"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B347" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="C347" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D343" s="2" t="s">
+      <c r="D347" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E343" s="2" t="s">
+      <c r="E347" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F343" s="2" t="s">
+      <c r="F347" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B344" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E344" s="3"/>
-      <c r="F344" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B345" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C345" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D345" s="3"/>
-      <c r="E345" s="3"/>
-      <c r="F345" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C346" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E346" s="3"/>
-      <c r="F346" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C347" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D347" s="3"/>
-      <c r="E347" s="3"/>
-      <c r="F347" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D348" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E348" s="3"/>
       <c r="F348" s="4" t="s">
-        <v>308</v>
+        <v>224</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>142</v>
+        <v>102</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D350" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="C350" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="E350" s="3"/>
       <c r="F350" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C351" s="9" t="s">
         <v>222</v>
@@ -7415,636 +7460,700 @@
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="4" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="4" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>321</v>
+        <v>164</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B355" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>228</v>
+      <c r="A355" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
-      <c r="F355" s="15" t="s">
-        <v>235</v>
+      <c r="F355" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B356" s="15" t="s">
-        <v>236</v>
+      <c r="A356" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
-      <c r="F356" s="15" t="s">
-        <v>236</v>
+      <c r="F356" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>323</v>
+      <c r="A357" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
-      <c r="F357" s="9" t="s">
+      <c r="F357" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358" s="3"/>
+      <c r="E358" s="3"/>
+      <c r="F358" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B359" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D359" s="3"/>
+      <c r="E359" s="3"/>
+      <c r="F359" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D360" s="3"/>
+      <c r="E360" s="3"/>
+      <c r="F360" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B361" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="19" t="s">
+      <c r="C361" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" s="3"/>
+      <c r="E361" s="3"/>
+      <c r="F361" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B360" s="19"/>
-      <c r="C360" s="19"/>
-      <c r="D360" s="19"/>
-      <c r="E360" s="19"/>
-      <c r="F360" s="19"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
+      <c r="B364" s="19"/>
+      <c r="C364" s="19"/>
+      <c r="D364" s="19"/>
+      <c r="E364" s="19"/>
+      <c r="F364" s="19"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B365" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="C365" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D361" s="2" t="s">
+      <c r="D365" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E361" s="2" t="s">
+      <c r="E365" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F361" s="2" t="s">
+      <c r="F365" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E362" s="3"/>
-      <c r="F362" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C363" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E363" s="3"/>
-      <c r="F363" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C364" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D364" s="3"/>
-      <c r="E364" s="3"/>
-      <c r="F364" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B365" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D365" s="3"/>
-      <c r="E365" s="3"/>
-      <c r="F365" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D366" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E366" s="3"/>
       <c r="F366" s="4" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D367" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="E367" s="3"/>
       <c r="F367" s="4" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>324</v>
+        <v>222</v>
       </c>
       <c r="D368" s="3"/>
-      <c r="E368" s="3">
-        <v>1</v>
-      </c>
+      <c r="E368" s="3"/>
       <c r="F368" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="4" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="4" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>321</v>
+        <v>164</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B372" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C372" s="4" t="s">
-        <v>228</v>
+      <c r="A372" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C372" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="D372" s="3"/>
-      <c r="E372" s="3"/>
-      <c r="F372" s="15" t="s">
-        <v>235</v>
+      <c r="E372" s="3">
+        <v>1</v>
+      </c>
+      <c r="F372" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B373" s="15" t="s">
-        <v>236</v>
+      <c r="A373" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
-      <c r="F373" s="15" t="s">
-        <v>236</v>
+      <c r="F373" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>323</v>
+      <c r="A374" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
-      <c r="F374" s="9" t="s">
-        <v>323</v>
+      <c r="F374" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="3"/>
-      <c r="B375" s="3"/>
-      <c r="C375" s="3"/>
+      <c r="A375" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B376" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D376" s="3"/>
+      <c r="E376" s="3"/>
+      <c r="F376" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B377" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D377" s="3"/>
+      <c r="E377" s="3"/>
+      <c r="F377" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" s="3"/>
+      <c r="E378" s="3"/>
+      <c r="F378" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="3"/>
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+      <c r="D379" s="3"/>
+      <c r="E379" s="3"/>
+      <c r="F379" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G375" s="1" t="s">
+      <c r="G379" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="19" t="s">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="B378" s="19"/>
-      <c r="C378" s="19"/>
-      <c r="D378" s="19"/>
-      <c r="E378" s="19"/>
-      <c r="F378" s="19"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="18" t="s">
+      <c r="B382" s="19"/>
+      <c r="C382" s="19"/>
+      <c r="D382" s="19"/>
+      <c r="E382" s="19"/>
+      <c r="F382" s="19"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B379" s="18" t="s">
+      <c r="B383" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C379" s="18" t="s">
+      <c r="C383" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D379" s="18" t="s">
+      <c r="D383" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E379" s="18" t="s">
+      <c r="E383" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F379" s="18" t="s">
+      <c r="F383" s="18" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B380" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E380" s="3"/>
-      <c r="F380" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B381" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C381" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E381" s="3"/>
-      <c r="F381" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B382" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C382" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D382" s="3"/>
-      <c r="E382" s="3"/>
-      <c r="F382" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C383" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D383" s="3"/>
-      <c r="E383" s="3"/>
-      <c r="F383" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>348</v>
+        <v>5</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D384" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E384" s="3"/>
       <c r="F384" s="4" t="s">
-        <v>342</v>
+        <v>224</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D385" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="E385" s="3"/>
       <c r="F385" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>165</v>
+        <v>336</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>229</v>
+        <v>337</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="4" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>230</v>
+        <v>348</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="4" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B390" s="15" t="s">
-        <v>235</v>
+      <c r="A390" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
-      <c r="F390" s="15" t="s">
-        <v>235</v>
+      <c r="F390" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B391" s="15" t="s">
-        <v>236</v>
+      <c r="A391" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
-      <c r="F391" s="15" t="s">
-        <v>236</v>
+      <c r="F391" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B392" s="9" t="s">
-        <v>323</v>
+      <c r="A392" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
-      <c r="F392" s="9" t="s">
-        <v>323</v>
+      <c r="F392" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="3"/>
-      <c r="B393" s="3"/>
-      <c r="C393" s="3"/>
+      <c r="A393" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
-      <c r="F393" s="4"/>
+      <c r="F393" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B394" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D394" s="3"/>
+      <c r="E394" s="3"/>
+      <c r="F394" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B395" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395" s="3"/>
+      <c r="E395" s="3"/>
+      <c r="F395" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B396" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D396" s="3"/>
+      <c r="E396" s="3"/>
+      <c r="F396" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="3"/>
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="3"/>
+      <c r="E397" s="3"/>
+      <c r="F397" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A213:F213"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A311:F311"/>
+    <mergeCell ref="A285:F285"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A346:F346"/>
+    <mergeCell ref="A364:F364"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A160:F160"/>
+    <mergeCell ref="A180:F180"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A378:F378"/>
-    <mergeCell ref="A193:F193"/>
-    <mergeCell ref="A209:F209"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A281:F281"/>
-    <mergeCell ref="A321:F321"/>
-    <mergeCell ref="A342:F342"/>
-    <mergeCell ref="A360:F360"/>
-    <mergeCell ref="A229:F229"/>
-    <mergeCell ref="A245:F245"/>
-    <mergeCell ref="A261:F261"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="A157:F157"/>
-    <mergeCell ref="A177:F177"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
